--- a/Team-Data/2013-14/4-2-2013-14.xlsx
+++ b/Team-Data/2013-14/4-2-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,13 +751,13 @@
         <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
         <v>0.454</v>
       </c>
       <c r="L2" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
         <v>25.8</v>
@@ -699,10 +766,10 @@
         <v>0.366</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q2" t="n">
         <v>0.78</v>
@@ -717,7 +784,7 @@
         <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
@@ -732,28 +799,28 @@
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA2" t="n">
         <v>19.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="AD2" t="n">
         <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>18</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -762,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>13</v>
@@ -774,16 +841,16 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -816,10 +883,10 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="n">
-        <v>0.307</v>
+        <v>0.311</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J3" t="n">
         <v>83.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L3" t="n">
         <v>6.7</v>
@@ -878,25 +945,25 @@
         <v>20.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
         <v>12</v>
       </c>
       <c r="S3" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
         <v>20.7</v>
@@ -905,7 +972,7 @@
         <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
         <v>4.3</v>
@@ -917,16 +984,16 @@
         <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.5</v>
+        <v>-4.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -941,7 +1008,7 @@
         <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -959,7 +1026,7 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -977,10 +1044,10 @@
         <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.541</v>
+        <v>0.548</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L4" t="n">
         <v>8.6</v>
@@ -1060,13 +1127,13 @@
         <v>23.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
         <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0.759</v>
@@ -1075,16 +1142,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>8.6</v>
@@ -1096,16 +1163,16 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="AD4" t="n">
         <v>25</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1159,16 +1226,16 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY4" t="n">
         <v>9</v>
@@ -1177,13 +1244,13 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.493</v>
+        <v>0.486</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
         <v>17.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
         <v>12.3</v>
@@ -1272,7 +1339,7 @@
         <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
         <v>5.1</v>
@@ -1284,13 +1351,13 @@
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1305,7 +1372,7 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>22</v>
@@ -1314,16 +1381,16 @@
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
         <v>11</v>
@@ -1335,10 +1402,10 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>17</v>
@@ -1353,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1365,7 +1432,7 @@
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -1394,85 +1461,85 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.573</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
         <v>80.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R6" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S6" t="n">
         <v>32.9</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z6" t="n">
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1496,7 +1563,7 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>28</v>
@@ -1505,10 +1572,10 @@
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1517,10 +1584,10 @@
         <v>10</v>
       </c>
       <c r="AS6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT6" t="n">
         <v>9</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1529,13 +1596,13 @@
         <v>19</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>4</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>45</v>
       </c>
       <c r="G7" t="n">
-        <v>0.408</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
         <v>17</v>
@@ -1615,7 +1682,7 @@
         <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R7" t="n">
         <v>12.1</v>
@@ -1624,10 +1691,10 @@
         <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>14.4</v>
@@ -1642,19 +1709,19 @@
         <v>5.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>19.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.8</v>
+        <v>-4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1675,7 +1742,7 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1699,13 +1766,13 @@
         <v>6</v>
       </c>
       <c r="AS7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
@@ -1896,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
         <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.44</v>
+        <v>0.432</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M9" t="n">
         <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
@@ -1982,25 +2049,25 @@
         <v>0.718</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
         <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
@@ -2012,37 +2079,37 @@
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>104</v>
+        <v>103.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2066,25 +2133,25 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,10 +2207,10 @@
         <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
         <v>6.1</v>
@@ -2152,13 +2219,13 @@
         <v>19.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O10" t="n">
         <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
         <v>0.669</v>
@@ -2173,13 +2240,13 @@
         <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
@@ -2188,7 +2255,7 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
         <v>20.4</v>
@@ -2197,10 +2264,10 @@
         <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2248,13 +2315,13 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2266,13 +2333,13 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.613</v>
+        <v>0.622</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
         <v>84.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L11" t="n">
         <v>9.199999999999999</v>
@@ -2337,28 +2404,28 @@
         <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W11" t="n">
         <v>7.6</v>
@@ -2373,16 +2440,16 @@
         <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2409,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2427,10 +2494,10 @@
         <v>16</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2451,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="n">
         <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L12" t="n">
         <v>9.300000000000001</v>
@@ -2537,7 +2604,7 @@
         <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2546,13 +2613,13 @@
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA12" t="n">
         <v>24.5</v>
@@ -2561,7 +2628,7 @@
         <v>106.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AD12" t="n">
         <v>25</v>
@@ -2576,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2612,16 +2679,16 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.697</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
@@ -2698,7 +2765,7 @@
         <v>18.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
         <v>18.3</v>
@@ -2707,25 +2774,25 @@
         <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R13" t="n">
         <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="T13" t="n">
         <v>45</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
         <v>5.6</v>
@@ -2737,16 +2804,16 @@
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
         <v>96.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2761,7 +2828,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2776,10 +2843,10 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2797,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2806,16 +2873,16 @@
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -2850,37 +2917,37 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.711</v>
+        <v>0.707</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
         <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M14" t="n">
         <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
         <v>21.1</v>
@@ -2889,16 +2956,16 @@
         <v>28.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
         <v>24.5</v>
@@ -2922,16 +2989,16 @@
         <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2943,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
         <v>20</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -2997,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,16 +3117,16 @@
         <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85</v>
+        <v>84.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="N15" t="n">
         <v>0.384</v>
@@ -3068,22 +3135,22 @@
         <v>16.9</v>
       </c>
       <c r="P15" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U15" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,19 +3192,19 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN15" t="n">
         <v>4</v>
@@ -3155,22 +3222,22 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>0.587</v>
+        <v>0.595</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
@@ -3247,10 +3314,10 @@
         <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="P16" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.742</v>
@@ -3259,7 +3326,7 @@
         <v>11.5</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
         <v>42.3</v>
@@ -3268,7 +3335,7 @@
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W16" t="n">
         <v>7.7</v>
@@ -3280,19 +3347,19 @@
         <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>9</v>
@@ -3307,10 +3374,10 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3328,19 +3395,19 @@
         <v>30</v>
       </c>
       <c r="AP16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,10 +3419,10 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
         <v>6</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.703</v>
+        <v>0.699</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3423,19 +3490,19 @@
         <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
         <v>0.365</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.6</v>
@@ -3450,7 +3517,7 @@
         <v>22.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
         <v>8.9</v>
@@ -3462,16 +3529,16 @@
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD17" t="n">
         <v>25</v>
@@ -3510,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>0.187</v>
+        <v>0.189</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,7 +3663,7 @@
         <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.434</v>
@@ -3608,16 +3675,16 @@
         <v>19.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3629,10 +3696,10 @@
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
@@ -3644,19 +3711,19 @@
         <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,40 +3738,40 @@
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
         <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP18" t="n">
         <v>20</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" t="n">
         <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J19" t="n">
-        <v>87.5</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R19" t="n">
         <v>12.5</v>
@@ -3811,7 +3878,7 @@
         <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
         <v>13.8</v>
@@ -3820,22 +3887,22 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD19" t="n">
         <v>25</v>
@@ -3859,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3907,13 +3974,13 @@
         <v>3</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,31 +4027,31 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M20" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P20" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
@@ -3999,37 +4066,37 @@
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>6.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>22.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -4038,7 +4105,7 @@
         <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,19 +4117,19 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4083,19 +4150,19 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
         <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M21" t="n">
         <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
         <v>15.2</v>
@@ -4178,40 +4245,40 @@
         <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
@@ -4220,10 +4287,10 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,13 +4299,13 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4265,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
         <v>23</v>
@@ -4274,10 +4341,10 @@
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,10 +4466,10 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4414,13 +4481,13 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4429,7 +4496,7 @@
         <v>19</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>5</v>
@@ -4438,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>10</v>
@@ -4453,7 +4520,7 @@
         <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
         <v>83.2</v>
@@ -4512,13 +4579,13 @@
         <v>0.444</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
         <v>16.1</v>
@@ -4527,16 +4594,16 @@
         <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R23" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U23" t="n">
         <v>21</v>
@@ -4557,16 +4624,16 @@
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4587,13 +4654,13 @@
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN23" t="n">
         <v>23</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>18</v>
@@ -4620,10 +4687,10 @@
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G24" t="n">
-        <v>0.213</v>
+        <v>0.216</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4697,10 +4764,10 @@
         <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="O24" t="n">
         <v>16.4</v>
@@ -4715,40 +4782,40 @@
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T24" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="n">
         <v>22.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.2</v>
+        <v>-11</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4775,28 +4842,28 @@
         <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
         <v>44</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.587</v>
+        <v>0.595</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,7 +4937,7 @@
         <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.462</v>
@@ -4879,37 +4946,37 @@
         <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P25" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R25" t="n">
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
         <v>43.2</v>
       </c>
       <c r="U25" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V25" t="n">
         <v>15.5</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X25" t="n">
         <v>4.6</v>
@@ -4930,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4945,10 +5012,10 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>11</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4960,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4972,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,13 +5051,13 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -5127,13 +5194,13 @@
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5142,13 +5209,13 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5181,13 +5248,13 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
         <v>2</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
         <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
         <v>82.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>6.2</v>
@@ -5249,28 +5316,28 @@
         <v>0.336</v>
       </c>
       <c r="O27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P27" t="n">
         <v>27.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R27" t="n">
         <v>12.2</v>
       </c>
       <c r="S27" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U27" t="n">
         <v>18.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
@@ -5282,28 +5349,28 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
@@ -5312,13 +5379,13 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
         <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
         <v>26</v>
@@ -5342,25 +5409,25 @@
         <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5419,16 +5486,16 @@
         <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.399</v>
+        <v>0.402</v>
       </c>
       <c r="O28" t="n">
         <v>15.9</v>
@@ -5437,7 +5504,7 @@
         <v>20.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
         <v>9.199999999999999</v>
@@ -5458,13 +5525,13 @@
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.5</v>
@@ -5473,10 +5540,10 @@
         <v>105.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5518,13 +5585,13 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5533,7 +5600,7 @@
         <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.573</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
@@ -5613,25 +5680,25 @@
         <v>0.366</v>
       </c>
       <c r="O29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R29" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S29" t="n">
         <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>14.2</v>
@@ -5643,22 +5710,22 @@
         <v>4.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AC29" t="n">
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5682,25 +5749,25 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
       </c>
       <c r="AR29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS29" t="n">
         <v>19</v>
@@ -5709,13 +5776,13 @@
         <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-7</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5873,7 +5940,7 @@
         <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP30" t="n">
         <v>22</v>
@@ -5891,10 +5958,10 @@
         <v>25</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5903,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
         <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L31" t="n">
         <v>8.1</v>
@@ -5974,7 +6041,7 @@
         <v>20.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O31" t="n">
         <v>15.5</v>
@@ -5983,22 +6050,22 @@
         <v>21.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
         <v>31.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>8.300000000000001</v>
@@ -6007,7 +6074,7 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
         <v>20.6</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6067,16 +6134,16 @@
         <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6091,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-2-2013-14</t>
+          <t>2014-04-02</t>
         </is>
       </c>
     </row>
